--- a/DDAf_2025_Tableau_annexe_Tab38.xlsx
+++ b/DDAf_2025_Tableau_annexe_Tab38.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D1DD6AF-661F-49A9-BB35-E39CFC7FD598}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C2930934-E5EA-44EE-9E57-92FF528CC4D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{EDC058BD-817E-44F9-919B-2CDD321303FB}"/>
+    <workbookView xWindow="28680" yWindow="-6075" windowWidth="29040" windowHeight="15720" xr2:uid="{D687F95D-4EA7-4522-9BCB-3118F4A28AEA}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab38" sheetId="1" r:id="rId1"/>
@@ -582,7 +582,7 @@
     <t>ROW = "Rest of world"; LAC = "Latin American and Caribbean countries".</t>
   </si>
   <si>
-    <t>Regional Economic Communities: CEN-SAD = "Community of Sahel-Saharan States"; COMESA = "Common Market for Eastern and Southern Africa"; EAC = "East African Community"; ECCAS = "Economic Community of Central African States"; ECOWAS = "Economic Community of West African States"; IGAD = "Intergovernmental Authority on Development"; SADC = "Southern African Development Community"; UMA = "Arab Maghreb Union"; PALOP = "PaÃ­ses Africanos de LÃ­ngua Oficial Portuguesa"; ASEAN = "Association of Southeast Asian Nations"; MERCOSUR = "Mercado ComÃºn del Sur". EU27 = "European Union (27 members)". OECD = "Organisation for Economic Co-operation and Development".</t>
+    <t>Regional Economic Communities: CEN-SAD = "Community of Sahel-Saharan States"; COMESA = "Common Market for Eastern and Southern Africa"; EAC = "East African Community"; ECCAS = "Economic Community of Central African States"; ECOWAS = "Economic Community of West African States"; IGAD = "Intergovernmental Authority on Development"; SADC = "Southern African Development Community"; UMA = "Arab Maghreb Union"; PALOP = "Países Africanos de Língua Oficial Portuguesa"; ASEAN = "Association of Southeast Asian Nations"; MERCOSUR = "Mercado Común del Sur". EU27 = "European Union (27 members)". OECD = "Organisation for Economic Co-operation and Development".</t>
   </si>
   <si>
     <t>Source: World Bank Global Bilateral Migration Matrix (WBGBMM), 2023.</t>
@@ -1490,7 +1490,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2E39CDB-390E-4113-8E69-83A35413496B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5BECC14-2407-48E4-9A01-743C3E9E2944}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1498,14 +1498,14 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="26" width="15.5703125" style="80" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="26" width="15.54296875" style="80" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1534,7 +1534,7 @@
       <c r="Y1" s="3"/>
       <c r="Z1" s="3"/>
     </row>
-    <row r="2" spans="1:26" ht="57" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" ht="53" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1614,7 +1614,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
         <v>27</v>
       </c>
@@ -1694,7 +1694,7 @@
         <v>-457</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
         <v>29</v>
       </c>
@@ -1774,7 +1774,7 @@
         <v>-437</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
         <v>31</v>
       </c>
@@ -1854,7 +1854,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A6" s="9" t="s">
         <v>33</v>
       </c>
@@ -1934,7 +1934,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
         <v>35</v>
       </c>
@@ -2014,7 +2014,7 @@
         <v>-503</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
         <v>37</v>
       </c>
@@ -2094,7 +2094,7 @@
         <v>-3997</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
         <v>39</v>
       </c>
@@ -2174,7 +2174,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
         <v>41</v>
       </c>
@@ -2254,7 +2254,7 @@
         <v>-7621</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
         <v>43</v>
       </c>
@@ -2334,7 +2334,7 @@
         <v>-484</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="9" t="s">
         <v>45</v>
       </c>
@@ -2414,7 +2414,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="13" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="26"/>
       <c r="B13" s="27" t="s">
         <v>47</v>
@@ -2492,7 +2492,7 @@
         <v>-12665</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A14" s="9" t="s">
         <v>48</v>
       </c>
@@ -2572,7 +2572,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A15" s="9" t="s">
         <v>50</v>
       </c>
@@ -2652,7 +2652,7 @@
         <v>-1353</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A16" s="9" t="s">
         <v>52</v>
       </c>
@@ -2732,7 +2732,7 @@
         <v>-435</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A17" s="9" t="s">
         <v>54</v>
       </c>
@@ -2812,7 +2812,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A18" s="9" t="s">
         <v>56</v>
       </c>
@@ -2892,7 +2892,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A19" s="9" t="s">
         <v>58</v>
       </c>
@@ -2972,7 +2972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A20" s="9" t="s">
         <v>60</v>
       </c>
@@ -3052,7 +3052,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A21" s="9" t="s">
         <v>62</v>
       </c>
@@ -3132,7 +3132,7 @@
         <v>3712</v>
       </c>
     </row>
-    <row r="22" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="9" t="s">
         <v>64</v>
       </c>
@@ -3212,7 +3212,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="23" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="26"/>
       <c r="B23" s="27" t="s">
         <v>66</v>
@@ -3290,7 +3290,7 @@
         <v>3411</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A24" s="9" t="s">
         <v>67</v>
       </c>
@@ -3370,7 +3370,7 @@
         <v>-24</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A25" s="9" t="s">
         <v>69</v>
       </c>
@@ -3450,7 +3450,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A26" s="9" t="s">
         <v>71</v>
       </c>
@@ -3530,7 +3530,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A27" s="9" t="s">
         <v>73</v>
       </c>
@@ -3610,7 +3610,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A28" s="9" t="s">
         <v>75</v>
       </c>
@@ -3690,7 +3690,7 @@
         <v>-18509</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A29" s="9" t="s">
         <v>77</v>
       </c>
@@ -3770,7 +3770,7 @@
         <v>1666</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A30" s="9" t="s">
         <v>79</v>
       </c>
@@ -3850,7 +3850,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A31" s="9" t="s">
         <v>81</v>
       </c>
@@ -3930,7 +3930,7 @@
         <v>-1162</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A32" s="9" t="s">
         <v>83</v>
       </c>
@@ -4010,7 +4010,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A33" s="9" t="s">
         <v>86</v>
       </c>
@@ -4090,7 +4090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A34" s="9" t="s">
         <v>88</v>
       </c>
@@ -4170,7 +4170,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A35" s="9" t="s">
         <v>90</v>
       </c>
@@ -4250,7 +4250,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A36" s="9" t="s">
         <v>92</v>
       </c>
@@ -4330,7 +4330,7 @@
         <v>-9047</v>
       </c>
     </row>
-    <row r="37" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="9" t="s">
         <v>94</v>
       </c>
@@ -4410,7 +4410,7 @@
         <v>-74</v>
       </c>
     </row>
-    <row r="38" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="26"/>
       <c r="B38" s="27" t="s">
         <v>96</v>
@@ -4488,7 +4488,7 @@
         <v>-26342</v>
       </c>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A39" s="9" t="s">
         <v>97</v>
       </c>
@@ -4568,7 +4568,7 @@
         <v>2213</v>
       </c>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A40" s="9" t="s">
         <v>99</v>
       </c>
@@ -4648,7 +4648,7 @@
         <v>51097</v>
       </c>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A41" s="9" t="s">
         <v>101</v>
       </c>
@@ -4728,7 +4728,7 @@
         <v>15473</v>
       </c>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A42" s="9" t="s">
         <v>103</v>
       </c>
@@ -4808,7 +4808,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A43" s="9" t="s">
         <v>105</v>
       </c>
@@ -4888,7 +4888,7 @@
         <v>2342</v>
       </c>
     </row>
-    <row r="44" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="9" t="s">
         <v>107</v>
       </c>
@@ -4968,7 +4968,7 @@
         <v>1431</v>
       </c>
     </row>
-    <row r="45" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="26"/>
       <c r="B45" s="27" t="s">
         <v>109</v>
@@ -5046,7 +5046,7 @@
         <v>72759</v>
       </c>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A46" s="9" t="s">
         <v>110</v>
       </c>
@@ -5126,7 +5126,7 @@
         <v>-276</v>
       </c>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A47" s="9" t="s">
         <v>112</v>
       </c>
@@ -5206,7 +5206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A48" s="9" t="s">
         <v>114</v>
       </c>
@@ -5286,7 +5286,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A49" s="9" t="s">
         <v>116</v>
       </c>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A50" s="9" t="s">
         <v>118</v>
       </c>
@@ -5446,7 +5446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A51" s="9" t="s">
         <v>120</v>
       </c>
@@ -5526,7 +5526,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A52" s="9" t="s">
         <v>122</v>
       </c>
@@ -5606,7 +5606,7 @@
         <v>-2712</v>
       </c>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A53" s="9" t="s">
         <v>124</v>
       </c>
@@ -5686,7 +5686,7 @@
         <v>-102</v>
       </c>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A54" s="9" t="s">
         <v>126</v>
       </c>
@@ -5766,7 +5766,7 @@
         <v>-250</v>
       </c>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A55" s="9" t="s">
         <v>128</v>
       </c>
@@ -5846,7 +5846,7 @@
         <v>2289</v>
       </c>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A56" s="9" t="s">
         <v>130</v>
       </c>
@@ -5926,7 +5926,7 @@
         <v>-603</v>
       </c>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A57" s="9" t="s">
         <v>132</v>
       </c>
@@ -6006,7 +6006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A58" s="9" t="s">
         <v>134</v>
       </c>
@@ -6086,7 +6086,7 @@
         <v>-7169</v>
       </c>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A59" s="9" t="s">
         <v>136</v>
       </c>
@@ -6166,7 +6166,7 @@
         <v>-192</v>
       </c>
     </row>
-    <row r="60" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="9" t="s">
         <v>138</v>
       </c>
@@ -6246,7 +6246,7 @@
         <v>-116</v>
       </c>
     </row>
-    <row r="61" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="26"/>
       <c r="B61" s="27" t="s">
         <v>140</v>
@@ -6324,7 +6324,7 @@
         <v>-7997</v>
       </c>
     </row>
-    <row r="62" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="48"/>
       <c r="B62" s="49" t="s">
         <v>141</v>
@@ -6402,7 +6402,7 @@
         <v>29166</v>
       </c>
     </row>
-    <row r="63" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="48"/>
       <c r="B63" s="49" t="s">
         <v>142</v>
@@ -6480,7 +6480,7 @@
         <v>8704950</v>
       </c>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A64" s="53"/>
       <c r="B64" s="54" t="s">
         <v>143</v>
@@ -6558,7 +6558,7 @@
         <v>249011</v>
       </c>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A65" s="53"/>
       <c r="B65" s="58" t="s">
         <v>144</v>
@@ -6636,7 +6636,7 @@
         <v>-196753</v>
       </c>
     </row>
-    <row r="66" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="53"/>
       <c r="B66" s="62" t="s">
         <v>145</v>
@@ -6714,7 +6714,7 @@
         <v>8734116</v>
       </c>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A67" s="53"/>
       <c r="B67" s="58" t="s">
         <v>146</v>
@@ -6792,7 +6792,7 @@
         <v>50083</v>
       </c>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A68" s="53"/>
       <c r="B68" s="58" t="s">
         <v>147</v>
@@ -6870,7 +6870,7 @@
         <v>62931</v>
       </c>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A69" s="53"/>
       <c r="B69" s="58" t="s">
         <v>148</v>
@@ -6948,7 +6948,7 @@
         <v>-28584</v>
       </c>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A70" s="53"/>
       <c r="B70" s="58" t="s">
         <v>149</v>
@@ -7026,7 +7026,7 @@
         <v>1792</v>
       </c>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A71" s="53"/>
       <c r="B71" s="58" t="s">
         <v>150</v>
@@ -7104,7 +7104,7 @@
         <v>-7997</v>
       </c>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A72" s="53"/>
       <c r="B72" s="58" t="s">
         <v>151</v>
@@ -7182,7 +7182,7 @@
         <v>-17837</v>
       </c>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A73" s="53"/>
       <c r="B73" s="58" t="s">
         <v>152</v>
@@ -7260,7 +7260,7 @@
         <v>-20021</v>
       </c>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A74" s="53"/>
       <c r="B74" s="58" t="s">
         <v>153</v>
@@ -7338,7 +7338,7 @@
         <v>21662</v>
       </c>
     </row>
-    <row r="75" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="53"/>
       <c r="B75" s="58" t="s">
         <v>154</v>
@@ -7416,7 +7416,7 @@
         <v>-4537</v>
       </c>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A76" s="53"/>
       <c r="B76" s="69" t="s">
         <v>155</v>
@@ -7494,7 +7494,7 @@
         <v>-119720</v>
       </c>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A77" s="53"/>
       <c r="B77" s="58" t="s">
         <v>156</v>
@@ -7572,7 +7572,7 @@
         <v>161884</v>
       </c>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A78" s="53"/>
       <c r="B78" s="58" t="s">
         <v>157</v>
@@ -7650,7 +7650,7 @@
         <v>1124742</v>
       </c>
     </row>
-    <row r="79" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="53"/>
       <c r="B79" s="62" t="s">
         <v>158</v>
@@ -7728,7 +7728,7 @@
         <v>8152013</v>
       </c>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A80" s="53"/>
       <c r="B80" s="69" t="s">
         <v>159</v>
@@ -7806,7 +7806,7 @@
         <v>22454</v>
       </c>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A81" s="53"/>
       <c r="B81" s="58" t="s">
         <v>160</v>
@@ -7884,7 +7884,7 @@
         <v>529710</v>
       </c>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A82" s="53"/>
       <c r="B82" s="58" t="s">
         <v>161</v>
@@ -7962,7 +7962,7 @@
         <v>6712</v>
       </c>
     </row>
-    <row r="83" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="53"/>
       <c r="B83" s="62" t="s">
         <v>162</v>
@@ -8040,7 +8040,7 @@
         <v>8175240</v>
       </c>
     </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A84" s="53"/>
       <c r="B84" s="69" t="s">
         <v>163</v>
@@ -8118,7 +8118,7 @@
         <v>-2843</v>
       </c>
     </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A85" s="53"/>
       <c r="B85" s="73" t="s">
         <v>164</v>
@@ -8196,7 +8196,7 @@
         <v>5054</v>
       </c>
     </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A86" s="53"/>
       <c r="B86" s="58" t="s">
         <v>165</v>
@@ -8274,7 +8274,7 @@
         <v>18148</v>
       </c>
     </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A87" s="53"/>
       <c r="B87" s="58" t="s">
         <v>166</v>
@@ -8352,7 +8352,7 @@
         <v>-67956</v>
       </c>
     </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A88" s="53"/>
       <c r="B88" s="58" t="s">
         <v>167</v>
@@ -8430,7 +8430,7 @@
         <v>13600</v>
       </c>
     </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A89" s="53"/>
       <c r="B89" s="58" t="s">
         <v>168</v>
@@ -8508,7 +8508,7 @@
         <v>665952</v>
       </c>
     </row>
-    <row r="90" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A90" s="53"/>
       <c r="B90" s="62" t="s">
         <v>169</v>
@@ -8586,7 +8586,7 @@
         <v>8105011</v>
       </c>
     </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A91" s="53"/>
       <c r="B91" s="69" t="s">
         <v>170</v>
@@ -8664,7 +8664,7 @@
         <v>-22193</v>
       </c>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A92" s="53"/>
       <c r="B92" s="58" t="s">
         <v>171</v>
@@ -8742,7 +8742,7 @@
         <v>3748</v>
       </c>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A93" s="53"/>
       <c r="B93" s="58" t="s">
         <v>172</v>
@@ -8820,7 +8820,7 @@
         <v>-58</v>
       </c>
     </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A94" s="53"/>
       <c r="B94" s="58" t="s">
         <v>173</v>
@@ -8898,7 +8898,7 @@
         <v>21179</v>
       </c>
     </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A95" s="53"/>
       <c r="B95" s="58" t="s">
         <v>174</v>
@@ -8976,7 +8976,7 @@
         <v>-499</v>
       </c>
     </row>
-    <row r="96" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A96" s="53"/>
       <c r="B96" s="62" t="s">
         <v>175</v>
@@ -9054,7 +9054,7 @@
         <v>-88607</v>
       </c>
     </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A97" s="53"/>
       <c r="B97" s="69" t="s">
         <v>176</v>
@@ -9132,7 +9132,7 @@
         <v>-14269</v>
       </c>
     </row>
-    <row r="98" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A98" s="53"/>
       <c r="B98" s="62" t="s">
         <v>177</v>
@@ -9210,7 +9210,7 @@
         <v>-9428</v>
       </c>
     </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A99" s="74"/>
       <c r="B99" s="75"/>
       <c r="C99" s="67"/>
@@ -9238,7 +9238,7 @@
       <c r="Y99" s="67"/>
       <c r="Z99" s="67"/>
     </row>
-    <row r="100" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
         <v>178</v>
       </c>
@@ -9267,7 +9267,7 @@
       <c r="Y100" s="76"/>
       <c r="Z100" s="76"/>
     </row>
-    <row r="101" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
         <v>179</v>
       </c>
@@ -9296,7 +9296,7 @@
       <c r="Y101" s="76"/>
       <c r="Z101" s="76"/>
     </row>
-    <row r="102" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
         <v>180</v>
       </c>
@@ -9325,7 +9325,7 @@
       <c r="Y102" s="76"/>
       <c r="Z102" s="76"/>
     </row>
-    <row r="103" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
         <v>181</v>
       </c>
@@ -9354,7 +9354,7 @@
       <c r="Y103" s="76"/>
       <c r="Z103" s="76"/>
     </row>
-    <row r="104" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
         <v>182</v>
       </c>
@@ -9383,7 +9383,7 @@
       <c r="Y104" s="76"/>
       <c r="Z104" s="76"/>
     </row>
-    <row r="105" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:26" x14ac:dyDescent="0.35">
       <c r="C105" s="76"/>
       <c r="D105" s="76"/>
       <c r="E105" s="76"/>
@@ -9409,7 +9409,7 @@
       <c r="Y105" s="76"/>
       <c r="Z105" s="76"/>
     </row>
-    <row r="106" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B106" s="77"/>
       <c r="C106" s="76"/>
       <c r="D106" s="76"/>
@@ -9436,7 +9436,7 @@
       <c r="Y106" s="76"/>
       <c r="Z106" s="76"/>
     </row>
-    <row r="107" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:26" x14ac:dyDescent="0.35">
       <c r="B107" s="78" t="s">
         <v>183</v>
       </c>
@@ -9465,7 +9465,7 @@
       <c r="Y107" s="76"/>
       <c r="Z107" s="76"/>
     </row>
-    <row r="108" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:26" x14ac:dyDescent="0.35">
       <c r="B108" s="2"/>
       <c r="C108" s="76"/>
       <c r="D108" s="76"/>
@@ -9492,7 +9492,7 @@
       <c r="Y108" s="76"/>
       <c r="Z108" s="76"/>
     </row>
-    <row r="109" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:26" x14ac:dyDescent="0.35">
       <c r="B109" s="81" t="s">
         <v>185</v>
       </c>
@@ -9521,7 +9521,7 @@
       <c r="Y109" s="76"/>
       <c r="Z109" s="76"/>
     </row>
-    <row r="110" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:26" x14ac:dyDescent="0.35">
       <c r="B110" s="81" t="s">
         <v>186</v>
       </c>
@@ -9550,7 +9550,7 @@
       <c r="Y110" s="76"/>
       <c r="Z110" s="76"/>
     </row>
-    <row r="111" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:26" x14ac:dyDescent="0.35">
       <c r="B111" s="81" t="s">
         <v>187</v>
       </c>
@@ -9579,7 +9579,7 @@
       <c r="Y111" s="76"/>
       <c r="Z111" s="76"/>
     </row>
-    <row r="112" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:26" x14ac:dyDescent="0.35">
       <c r="B112" s="2" t="s">
         <v>184</v>
       </c>
@@ -9608,7 +9608,7 @@
       <c r="Y112" s="76"/>
       <c r="Z112" s="76"/>
     </row>
-    <row r="113" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B113" s="79"/>
       <c r="C113" s="76"/>
       <c r="D113" s="76"/>
@@ -9637,12 +9637,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B113" r:id="rId1" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{73A4C406-C34B-4826-A32D-EEACFF42A114}"/>
-    <hyperlink ref="B109" r:id="rId2" xr:uid="{DC8FD894-C1CD-4CB8-8DEA-43FAE18FC592}"/>
-    <hyperlink ref="B110" r:id="rId3" xr:uid="{9BD1B6AF-FACB-41CD-B1DB-10A4454A331A}"/>
-    <hyperlink ref="B107" r:id="rId4" xr:uid="{6C09EAA6-631A-4C4E-A390-26961E58B6A6}"/>
-    <hyperlink ref="B112" r:id="rId5" display="CLICK HERE to download all data for the Africa's Development Dynamics Statistical Annex in an Excel format, including historic data back to 2000." xr:uid="{1B49F916-49BF-4576-A702-3552CFAAF521}"/>
-    <hyperlink ref="B111" r:id="rId6" xr:uid="{950F5F18-5C44-40AD-91F6-33039B2E6EA7}"/>
+    <hyperlink ref="B113" r:id="rId1" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{A738C1C9-21C1-40BC-8D33-F924E786A637}"/>
+    <hyperlink ref="B109" r:id="rId2" xr:uid="{C8125710-EBA2-48F9-BE9B-A5D37C5D7C73}"/>
+    <hyperlink ref="B110" r:id="rId3" xr:uid="{3499362F-B1D7-4CA5-A769-6B34E0A52D37}"/>
+    <hyperlink ref="B107" r:id="rId4" xr:uid="{1D51CB2E-5597-4FA1-A2F2-B3CEF45B414D}"/>
+    <hyperlink ref="B112" r:id="rId5" display="CLICK HERE to download all data for the Africa's Development Dynamics Statistical Annex in an Excel format, including historic data back to 2000." xr:uid="{DFA04667-E4E8-4F8E-950D-53CE932977A8}"/>
+    <hyperlink ref="B111" r:id="rId6" xr:uid="{5E3120AC-A205-490B-9287-FDF44350D97E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="49" fitToWidth="0" orientation="portrait" r:id="rId7"/>

--- a/DDAf_2025_Tableau_annexe_Tab38.xlsx
+++ b/DDAf_2025_Tableau_annexe_Tab38.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C2930934-E5EA-44EE-9E57-92FF528CC4D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{89DC7768-A9BD-4358-9995-E7597B1390E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-6075" windowWidth="29040" windowHeight="15720" xr2:uid="{D687F95D-4EA7-4522-9BCB-3118F4A28AEA}"/>
+    <workbookView xWindow="28680" yWindow="-6075" windowWidth="29040" windowHeight="15720" xr2:uid="{5F8CF97D-B403-45E2-99C6-F436C579E06F}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab38" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Tab38'!$A$2:$J$98</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Tab38'!$A$1:$J$98</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Tab38'!$A$2:$C$98</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Tab38'!$A$1:$K$103</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,93 +37,93 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="188">
-  <si>
-    <t>Table 38: Migration by education level</t>
-  </si>
-  <si>
-    <t>CntryCode</t>
-  </si>
-  <si>
-    <t>Country (Resource-rich countries are shaded)</t>
-  </si>
-  <si>
-    <t>Emigrants within same AUC region aged 15+, no tertiary education, 2020</t>
-  </si>
-  <si>
-    <t>Emigrants within same AUC region aged 15+, with tertiary education, 2020</t>
-  </si>
-  <si>
-    <t>Emigrants within same continent aged 15+, no tertiary education, 2020</t>
-  </si>
-  <si>
-    <t>Emigrants within same continent aged 15+, with tertiary education, 2020</t>
-  </si>
-  <si>
-    <t>Emigrants outside continent aged 15+, no tertiary education, 2020</t>
-  </si>
-  <si>
-    <t>Emigrants outside continent aged 15+, with tertiary education, 2020</t>
-  </si>
-  <si>
-    <t>Immigrants from same AUC region aged 15+, no tertiary education, 2020</t>
-  </si>
-  <si>
-    <t>Immigrants from same AUC region aged 15+, with tertiary education, 2020</t>
-  </si>
-  <si>
-    <t>Immigrants from same continent aged 15+, no tertiary education, 2020</t>
-  </si>
-  <si>
-    <t>Immigrants from same continent aged 15+, with tertiary education, 2020</t>
-  </si>
-  <si>
-    <t>Immigrants from outside continent aged 15+, no tertiary education, 2020</t>
-  </si>
-  <si>
-    <t>Immigrants from outside continent aged 15+, with tertiary education, 2020</t>
-  </si>
-  <si>
-    <t>Ten-year increase in emigrants within same AUC region aged 15+, no tertiary education, 2020</t>
-  </si>
-  <si>
-    <t>Ten-year increase in emigrants within same AUC region aged 15+, with tertiary education, 2020</t>
-  </si>
-  <si>
-    <t>Ten-year increase in emigrants within same continent aged 15+, no tertiary education, 2020</t>
-  </si>
-  <si>
-    <t>Ten-year increase in emigrants within same continent aged 15+, with tertiary education, 2020</t>
-  </si>
-  <si>
-    <t>Ten-year increase in emigrants outside continent aged 15+, no tertiary education, 2020</t>
-  </si>
-  <si>
-    <t>Ten-year increase in emigrants outside continent aged 15+, with tertiary education, 2020</t>
-  </si>
-  <si>
-    <t>Ten-year increase in immigrants from same AUC region aged 15+, no tertiary education, 2020</t>
-  </si>
-  <si>
-    <t>Ten-year increase in immigrants from same AUC region aged 15+, with tertiary education, 2020</t>
-  </si>
-  <si>
-    <t>Ten-year increase in immigrants from same continent aged 15+, no tertiary education, 2020</t>
-  </si>
-  <si>
-    <t>Ten-year increase in immigrants from same continent aged 15+, with tertiary education, 2020</t>
-  </si>
-  <si>
-    <t>Ten-year increase in immigrants from outside continent aged 15+, no tertiary education, 2020</t>
-  </si>
-  <si>
-    <t>Ten-year increase in immigrants from outside continent aged 15+, with tertiary education, 2020</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="189">
+  <si>
+    <t>Tableau 38 : Migrants selon leur niveau d’éducation</t>
+  </si>
+  <si>
+    <t>ISO3 Code</t>
+  </si>
+  <si>
+    <t>Pays (pays riches en ressources ombrés)</t>
+  </si>
+  <si>
+    <t>Émigrants de la même région de la CUA âgés de 15 ans et plus, n'ayant pas fait d'études supérieures, 2020</t>
+  </si>
+  <si>
+    <t>Émigrants de la même région de la CUA âgés de 15 ans et plus, ayant fait des études supérieures, 2020</t>
+  </si>
+  <si>
+    <t>Émigrants au sein du même continent âgés de 15 ans et plus, n'ayant pas fait d'études supérieures, 2020</t>
+  </si>
+  <si>
+    <t>Émigrants au sein du même continent âgés de 15 ans et plus, ayant fait des études supérieures, 2020</t>
+  </si>
+  <si>
+    <t>Émigrants hors continent âgés de 15 ans et plus, n'ayant pas fait d'études supérieures, 2020</t>
+  </si>
+  <si>
+    <t>Émigrants hors continent âgés de 15 ans et plus, ayant fait des études supérieures, 2020</t>
+  </si>
+  <si>
+    <t>Immigrants de la même région de la CUA âgés de 15 ans et plus, n'ayant pas fait d'études supérieures, 2020</t>
+  </si>
+  <si>
+    <t>Immigrants de la même région de la CUA âgés de 15 ans et plus, ayant fait des études supérieures, 2020</t>
+  </si>
+  <si>
+    <t>Immigrants du même continent âgés de 15 ans et plus, n'ayant pas fait d'études supérieures, 2020</t>
+  </si>
+  <si>
+    <t>Immigrants du même continent âgés de 15 ans et plus, ayant fait des études supérieures, 2020</t>
+  </si>
+  <si>
+    <t>Immigrants hors continent âgés de 15 ans et plus, n'ayant pas fait d'études supérieures, 2020</t>
+  </si>
+  <si>
+    <t>Immigrants hors continent âgés de 15 ans et plus, ayant fait des études supérieures, 2020</t>
+  </si>
+  <si>
+    <t>Augmentation sur dix ans du nombre d'émigrants au sein de la même région de la CUA âgés de 15 ans et plus, n'ayant pas fait d'études supérieures, 2020</t>
+  </si>
+  <si>
+    <t>Augmentation sur dix ans du nombre d'émigrants au sein de la même région de la CUA âgés de 15 ans et plus, ayant fait des études supérieures, 2020</t>
+  </si>
+  <si>
+    <t>Augmentation sur dix ans du nombre d'émigrants au sein d'un même continent âgés de 15 ans et plus, n'ayant pas fait d'études supérieures, 2020</t>
+  </si>
+  <si>
+    <t>Augmentation sur dix ans du nombre d'émigrants au sein d'un même continent âgés de 15 ans et plus, ayant fait des études supérieures, 2020</t>
+  </si>
+  <si>
+    <t>Augmentation sur dix ans des émigrants hors continent âgés de 15 ans et plus, n'ayant pas fait d'études supérieures, 2020</t>
+  </si>
+  <si>
+    <t>Augmentation sur dix ans du nombre d’émigrants hors continent âgés de 15 ans et plus, ayant fait des études supérieures, 2020</t>
+  </si>
+  <si>
+    <t>Augmentation sur dix ans du nombre d'immigrants de la même région de la CUA âgés de 15 ans et plus, n'ayant pas fait d'études supérieures, 2020</t>
+  </si>
+  <si>
+    <t>Augmentation sur dix ans du nombre d'immigrants de la même région de la CUA âgés de 15 ans et plus, ayant fait des études supérieures, 2020</t>
+  </si>
+  <si>
+    <t>Augmentation sur dix ans du nombre d'immigrés du même continent âgés de 15 ans et plus, n'ayant pas fait d'études supérieures, 2020</t>
+  </si>
+  <si>
+    <t>Augmentation sur dix ans du nombre d'immigrants du même continent âgés de 15 ans et plus, ayant fait des études supérieures, 2020</t>
+  </si>
+  <si>
+    <t>Augmentation sur dix ans du nombre d'immigrés hors continent âgés de 15 ans et plus, n'ayant pas fait d'études supérieures, 2020</t>
+  </si>
+  <si>
+    <t>Augmentation sur dix ans du nombre d’immigrés hors continent âgés de 15 ans et plus, ayant fait des études supérieures, 2020</t>
   </si>
   <si>
     <t>AGO</t>
   </si>
   <si>
-    <t>Angola*</t>
+    <t>Angola</t>
   </si>
   <si>
     <t>BWA</t>
@@ -159,19 +159,19 @@
     <t>NAM</t>
   </si>
   <si>
-    <t>Namibia</t>
+    <t>Namibie</t>
   </si>
   <si>
     <t>ZAF</t>
   </si>
   <si>
-    <t>South Africa</t>
+    <t>Afrique du Sud</t>
   </si>
   <si>
     <t>ZMB</t>
   </si>
   <si>
-    <t>Zambia</t>
+    <t>Zambie</t>
   </si>
   <si>
     <t>ZWE</t>
@@ -180,7 +180,10 @@
     <t>Zimbabwe</t>
   </si>
   <si>
-    <t>Southern Africa</t>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Afrique Australe</t>
   </si>
   <si>
     <t>BDI</t>
@@ -192,58 +195,58 @@
     <t>CMR</t>
   </si>
   <si>
-    <t>Cameroon</t>
+    <t>Cameroun</t>
   </si>
   <si>
     <t>CAF</t>
   </si>
   <si>
-    <t>Central African Republic</t>
+    <t>République centrafricaine</t>
   </si>
   <si>
     <t>TCD</t>
   </si>
   <si>
-    <t>Chad*</t>
+    <t>Tchad</t>
   </si>
   <si>
     <t>COG</t>
   </si>
   <si>
-    <t>Congo Republic*</t>
+    <t>République du Congo</t>
   </si>
   <si>
     <t>COD</t>
   </si>
   <si>
-    <t>DR Congo</t>
+    <t>RD Congo</t>
   </si>
   <si>
     <t>GNQ</t>
   </si>
   <si>
-    <t>Equatorial Guinea*</t>
+    <t>Guinée équatoriale</t>
   </si>
   <si>
     <t>GAB</t>
   </si>
   <si>
-    <t>Gabon*</t>
+    <t>Gabon</t>
   </si>
   <si>
     <t>STP</t>
   </si>
   <si>
-    <t>São Tomé and Príncipe</t>
-  </si>
-  <si>
-    <t>Central Africa</t>
+    <t>Sao Tomé-et-Principe</t>
+  </si>
+  <si>
+    <t>Afrique Centrale</t>
   </si>
   <si>
     <t>COM</t>
   </si>
   <si>
-    <t>Comoros</t>
+    <t>Comores</t>
   </si>
   <si>
     <t>DJI</t>
@@ -255,13 +258,13 @@
     <t>ERI</t>
   </si>
   <si>
-    <t>Eritrea</t>
+    <t>Érythrée</t>
   </si>
   <si>
     <t>ETH</t>
   </si>
   <si>
-    <t>Ethiopia</t>
+    <t>Éthiopie</t>
   </si>
   <si>
     <t>KEN</t>
@@ -279,7 +282,7 @@
     <t>MUS</t>
   </si>
   <si>
-    <t>Mauritius</t>
+    <t>Maurice</t>
   </si>
   <si>
     <t>RWA</t>
@@ -300,79 +303,79 @@
     <t>SOM</t>
   </si>
   <si>
-    <t>Somalia</t>
+    <t>Somalie</t>
   </si>
   <si>
     <t>SSD</t>
   </si>
   <si>
-    <t>South Sudan*</t>
+    <t>Soudan du Sud</t>
   </si>
   <si>
     <t>SDN</t>
   </si>
   <si>
-    <t>Sudan</t>
+    <t>Soudan</t>
   </si>
   <si>
     <t>TZA</t>
   </si>
   <si>
-    <t>Tanzania</t>
+    <t>Tanzanie</t>
   </si>
   <si>
     <t>UGA</t>
   </si>
   <si>
-    <t>Uganda</t>
-  </si>
-  <si>
-    <t>East Africa</t>
+    <t>Ouganda</t>
+  </si>
+  <si>
+    <t>Afrique de l'Est</t>
   </si>
   <si>
     <t>DZA</t>
   </si>
   <si>
-    <t>Algeria*</t>
+    <t>Algérie</t>
   </si>
   <si>
     <t>EGY</t>
   </si>
   <si>
-    <t>Egypt</t>
+    <t>Égypte</t>
   </si>
   <si>
     <t>LBY</t>
   </si>
   <si>
-    <t>Libya*</t>
+    <t>Libye</t>
   </si>
   <si>
     <t>MRT</t>
   </si>
   <si>
-    <t>Mauritania*</t>
+    <t>Mauritanie</t>
   </si>
   <si>
     <t>MAR</t>
   </si>
   <si>
-    <t>Morocco</t>
+    <t>Maroc</t>
   </si>
   <si>
     <t>TUN</t>
   </si>
   <si>
-    <t>Tunisia</t>
-  </si>
-  <si>
-    <t>North Africa</t>
+    <t>Tunisie</t>
+  </si>
+  <si>
+    <t>Afrique du Nord</t>
   </si>
   <si>
     <t>BEN</t>
   </si>
   <si>
-    <t>Benin</t>
+    <t>Bénin</t>
   </si>
   <si>
     <t>BFA</t>
@@ -384,7 +387,7 @@
     <t>CPV</t>
   </si>
   <si>
-    <t>Cabo Verde*</t>
+    <t>Cabo Verde</t>
   </si>
   <si>
     <t>CIV</t>
@@ -396,7 +399,7 @@
     <t>GMB</t>
   </si>
   <si>
-    <t>Gambia</t>
+    <t>Gambie</t>
   </si>
   <si>
     <t>GHA</t>
@@ -408,13 +411,13 @@
     <t>GIN</t>
   </si>
   <si>
-    <t>Guinea</t>
+    <t>Guinée</t>
   </si>
   <si>
     <t>GNB</t>
   </si>
   <si>
-    <t>Guinea-Bissau</t>
+    <t>Guinée-Bissau</t>
   </si>
   <si>
     <t>LBR</t>
@@ -444,7 +447,7 @@
     <t>SEN</t>
   </si>
   <si>
-    <t>Senegal</t>
+    <t>Sénégal</t>
   </si>
   <si>
     <t>SLE</t>
@@ -459,22 +462,22 @@
     <t>Togo</t>
   </si>
   <si>
-    <t>West Africa</t>
-  </si>
-  <si>
-    <t>Africa</t>
-  </si>
-  <si>
-    <t>World outside Africa</t>
-  </si>
-  <si>
-    <t>Latin America and Caribbean</t>
-  </si>
-  <si>
-    <t>Asia (no high inc.)</t>
-  </si>
-  <si>
-    <t>World</t>
+    <t>Afrique de l'Ouest</t>
+  </si>
+  <si>
+    <t>Afrique</t>
+  </si>
+  <si>
+    <t>Reste du monde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amérique latine et Caraîbes </t>
+  </si>
+  <si>
+    <t>Asie (pays à revenu élevé exclus)</t>
+  </si>
+  <si>
+    <t>Monde</t>
   </si>
   <si>
     <t>COMESA</t>
@@ -483,19 +486,19 @@
     <t>CEN-SAD</t>
   </si>
   <si>
-    <t>EAC</t>
-  </si>
-  <si>
-    <t>ECCAS</t>
-  </si>
-  <si>
-    <t>ECOWAS</t>
+    <t>CAE</t>
+  </si>
+  <si>
+    <t>CEEAC</t>
+  </si>
+  <si>
+    <t>CEDEAO</t>
   </si>
   <si>
     <t>IGAD</t>
   </si>
   <si>
-    <t>SADC</t>
+    <t>CDAA</t>
   </si>
   <si>
     <t>UMA</t>
@@ -513,104 +516,107 @@
     <t>EU27</t>
   </si>
   <si>
-    <t>OECD</t>
-  </si>
-  <si>
-    <t>Africa, Resource-rich countries</t>
-  </si>
-  <si>
-    <t>ROW, Resource-rich countries</t>
-  </si>
-  <si>
-    <t>Africa, Non-resource-rich countries</t>
-  </si>
-  <si>
-    <t>ROW, Non-resource-rich countries</t>
-  </si>
-  <si>
-    <t>Africa, Low income countries</t>
-  </si>
-  <si>
-    <t>ROW, Low income countries</t>
-  </si>
-  <si>
-    <t>Africa, Lower middle income countries</t>
-  </si>
-  <si>
-    <t>ROW, Lower middle income countries</t>
-  </si>
-  <si>
-    <t>Africa, Upper middle income countries</t>
-  </si>
-  <si>
-    <t>ROW, Upper middle income countries</t>
-  </si>
-  <si>
-    <t>High income countries</t>
-  </si>
-  <si>
-    <t>Africa, Least Developed Countries</t>
-  </si>
-  <si>
-    <t>ROW, Least Developed Countries</t>
-  </si>
-  <si>
-    <t>Africa, Small Island Developing States</t>
-  </si>
-  <si>
-    <t>ROW, Small Island Developing States</t>
-  </si>
-  <si>
-    <t>Africa, Landlocked Developing Countries</t>
-  </si>
-  <si>
-    <t>ROW, Landlocked Developing Countries</t>
-  </si>
-  <si>
-    <t>Africa, High and extreme fragility</t>
-  </si>
-  <si>
-    <t>ROW, High and extreme fragility</t>
-  </si>
-  <si>
-    <t>Disclaimer: This table and any data included herein is without prejudice to the status of or sovereignty over any territory, to the delimitation of international frontiers and boundaries and to the name of any territory, city or area.</t>
-  </si>
-  <si>
-    <t>Note: *Resource-rich countries; ".." indicates data not available or not applicable.</t>
-  </si>
-  <si>
-    <t>ROW = "Rest of world"; LAC = "Latin American and Caribbean countries".</t>
-  </si>
-  <si>
-    <t>Regional Economic Communities: CEN-SAD = "Community of Sahel-Saharan States"; COMESA = "Common Market for Eastern and Southern Africa"; EAC = "East African Community"; ECCAS = "Economic Community of Central African States"; ECOWAS = "Economic Community of West African States"; IGAD = "Intergovernmental Authority on Development"; SADC = "Southern African Development Community"; UMA = "Arab Maghreb Union"; PALOP = "Países Africanos de Língua Oficial Portuguesa"; ASEAN = "Association of Southeast Asian Nations"; MERCOSUR = "Mercado Común del Sur". EU27 = "European Union (27 members)". OECD = "Organisation for Economic Co-operation and Development".</t>
-  </si>
-  <si>
-    <t>Source: World Bank Global Bilateral Migration Matrix (WBGBMM), 2023.</t>
-  </si>
-  <si>
-    <t>CLICK HERE to visit the website where you can find the Africa's Development Dynamics report, and where you can find links to explore these data further and look up historic values for these indicators.</t>
-  </si>
-  <si>
-    <t>CLICK HERE to download all data for the Africa's Development Dynamics Statistical Annex in an Excel format, including historic data back to 2000 (in a compressed file format).</t>
-  </si>
-  <si>
-    <t>For more information about the indicators presented in this table, go to the List of indicators, descriptions and details, click here.</t>
-  </si>
-  <si>
-    <t>To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators, click here.</t>
-  </si>
-  <si>
-    <t>To see the full list of sources used in the Statistical Annex, click here.</t>
+    <t>OCDE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Afrique, pays riches en ressources </t>
+  </si>
+  <si>
+    <t>RDM, pays riches en ressources</t>
+  </si>
+  <si>
+    <t>Afrique (pays riches en ressources exclus)</t>
+  </si>
+  <si>
+    <t>RDM (pays riches en ressources exclus)</t>
+  </si>
+  <si>
+    <t>Afrique, pays à faible revenu</t>
+  </si>
+  <si>
+    <t>RDM, pays à faible revenu</t>
+  </si>
+  <si>
+    <t>Afrique, pays à revenu intermediaire, tranche inférieure</t>
+  </si>
+  <si>
+    <t>RDM, pays à revenu intermédiaire, tranche inférieure</t>
+  </si>
+  <si>
+    <t>Afrique, pays à revenu intermediaire, tranche supérieure</t>
+  </si>
+  <si>
+    <t>RDM, pays à revenu intermédiaire, tranche supérieure</t>
+  </si>
+  <si>
+    <t>Pays à revenu élévé</t>
+  </si>
+  <si>
+    <t>Afrique, pays les moins avancés</t>
+  </si>
+  <si>
+    <t>RDM, pays les moins avancés</t>
+  </si>
+  <si>
+    <t>Afrique, petits Etats insulaires en développement</t>
+  </si>
+  <si>
+    <t>RDM, petits Etats insulaires en développement</t>
+  </si>
+  <si>
+    <t>Afrique, pays en développement sans littoral</t>
+  </si>
+  <si>
+    <t>Afrique, Etats fragiles</t>
+  </si>
+  <si>
+    <t>RDM, Etats fragiles</t>
+  </si>
+  <si>
+    <t>Responsabilité : Ce tableau ainsi que toutes les données qu'il peut comprendre, sont sans préjudice du statut de tout territoire, de la souveraineté s'exerçant sur ce dernier, du tracé des frontières et limites internationales, et du nom de tout territoire, ville ou région.</t>
+  </si>
+  <si>
+    <t>Note : *Pays riches en ressources ; ".."signifie que les données ne sont pas disponibles ou qu'elles ne sont pas valables.</t>
+  </si>
+  <si>
+    <t>RDM = "Reste du monde" ; ALC = "Pays d'Amérique latine et des Caraïbes"</t>
+  </si>
+  <si>
+    <t>CEN-SAD = « Communauté des États sahélo-sahariens » ; COMESA = « Marché commun de l’Afrique orientale et australe » ; EAC = « Communauté d’Afrique de l’Est » ; ECCAS = « Communauté économique des États de l’Afrique centrale » ; ECOWAS = « Communauté économique des États de l’Afrique de l’Ouest » ; IGAD = « Autorité intergouvernementale pour le développement » ; SADC = « Communauté de développement de l’Afrique australe » ; UMA = « Union du Maghreb arabe » ; PALOP = « Pays africains de langue officielle portugaise » ; ASEAN = « Association des nations de l’Asie du Sud-Est » ; MERCOSUR = « Marché commun du Sud ».
+EU27 = « Union européenne (27 membres) ». OECD = « Organisation de coopération et de développement économiques ».</t>
+  </si>
+  <si>
+    <t>Source : Matrice mondiale des migrations bilatérales de la Banque mondiale (WBGBMM), 2023.</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>CLIQUEZ ICI pour accéder à la liste des indicateurs, leurs descriptions et détails pour plus d’informations sur les indicateurs présentés dans ce tableau.</t>
+  </si>
+  <si>
+    <t>CLIQUEZ ICI pour accéder à la liste des pays et des regroupements de pays utilisés pour agréger les indicateurs et voir quels pays appartiennent à chaque regroupement.</t>
+  </si>
+  <si>
+    <t>CLIQUEZ ICI pour télécharger toutes les données de l’Annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques depuis 2000 (dans un format de fichier compressé).</t>
+  </si>
+  <si>
+    <t>CLIQUEZ ICI pour visiter le site web où vous trouverez le rapport sur la dynamique du développement en Afrique, ainsi que des liens pour explorer ces données plus en détail et consulter les valeurs historiques de ces indicateurs.</t>
+  </si>
+  <si>
+    <t>CLIQUEZ ICI pour accéder à la liste complète des sources utilisées dans l'annexe statistique.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -742,16 +748,6 @@
       <u/>
       <sz val="12"/>
       <color rgb="FFD42C2D"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FFA54917"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1206,8 +1202,8 @@
     <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
@@ -1490,19 +1486,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5BECC14-2407-48E4-9A01-743C3E9E2944}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C3AACE4-7DBF-4ABC-A937-05EF8765428B}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Z113"/>
+  <dimension ref="A1:Z115"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5.453125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="26" width="15.54296875" style="80" customWidth="1"/>
+    <col min="3" max="3" width="15.54296875" style="80" customWidth="1"/>
+    <col min="4" max="5" width="15.54296875" customWidth="1"/>
+    <col min="6" max="6" width="15.54296875" style="80" customWidth="1"/>
+    <col min="7" max="8" width="15.54296875" customWidth="1"/>
+    <col min="9" max="9" width="15.54296875" style="80" customWidth="1"/>
+    <col min="10" max="26" width="15.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1534,7 +1535,7 @@
       <c r="Y1" s="3"/>
       <c r="Z1" s="3"/>
     </row>
-    <row r="2" spans="1:26" ht="53" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:26" ht="84.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -2415,9 +2416,11 @@
       </c>
     </row>
     <row r="13" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="26"/>
+      <c r="A13" s="26" t="s">
+        <v>47</v>
+      </c>
       <c r="B13" s="27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C13" s="28">
         <v>2073388</v>
@@ -2494,10 +2497,10 @@
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A14" s="9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C14" s="21">
         <v>39233</v>
@@ -2574,10 +2577,10 @@
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A15" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C15" s="21">
         <v>73779</v>
@@ -2654,10 +2657,10 @@
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A16" s="9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C16" s="21">
         <v>664482</v>
@@ -2734,10 +2737,10 @@
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A17" s="9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B17" s="31" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C17" s="32">
         <v>47555</v>
@@ -2814,10 +2817,10 @@
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A18" s="9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B18" s="31" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C18" s="32">
         <v>19978</v>
@@ -2894,10 +2897,10 @@
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A19" s="9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C19" s="15">
         <v>265722</v>
@@ -2974,10 +2977,10 @@
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A20" s="9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B20" s="31" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C20" s="32">
         <v>88396</v>
@@ -3054,10 +3057,10 @@
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A21" s="9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B21" s="31" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C21" s="32">
         <v>4075</v>
@@ -3134,10 +3137,10 @@
     </row>
     <row r="22" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B22" s="35" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C22" s="36">
         <v>8170</v>
@@ -3213,9 +3216,11 @@
       </c>
     </row>
     <row r="23" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="26"/>
+      <c r="A23" s="26" t="s">
+        <v>47</v>
+      </c>
       <c r="B23" s="27" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C23" s="28">
         <v>1211390</v>
@@ -3292,10 +3297,10 @@
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A24" s="9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B24" s="39" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C24" s="40">
         <v>7708</v>
@@ -3372,10 +3377,10 @@
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A25" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C25" s="21">
         <v>2533</v>
@@ -3452,10 +3457,10 @@
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A26" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C26" s="21">
         <v>315163</v>
@@ -3532,10 +3537,10 @@
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A27" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C27" s="21">
         <v>111912</v>
@@ -3612,10 +3617,10 @@
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A28" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C28" s="21">
         <v>51828</v>
@@ -3692,10 +3697,10 @@
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A29" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C29" s="21">
         <v>10011</v>
@@ -3772,10 +3777,10 @@
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A30" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C30" s="21">
         <v>451</v>
@@ -3852,10 +3857,10 @@
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A31" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C31" s="21">
         <v>52449</v>
@@ -3932,10 +3937,10 @@
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A32" s="9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C32" s="21">
         <v>266</v>
@@ -3974,48 +3979,48 @@
         <v>3236</v>
       </c>
       <c r="O32" s="21" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P32" s="19" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q32" s="19" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="R32" s="19" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="S32" s="19" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="T32" s="20" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="U32" s="21" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="V32" s="19" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="W32" s="19" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="X32" s="19" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Y32" s="19" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Z32" s="20" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A33" s="9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C33" s="21">
         <v>745374</v>
@@ -4092,10 +4097,10 @@
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A34" s="9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B34" s="31" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C34" s="32">
         <v>1409325</v>
@@ -4134,48 +4139,48 @@
         <v>454</v>
       </c>
       <c r="O34" s="32" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P34" s="33" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q34" s="33" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="R34" s="33" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="S34" s="33" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="T34" s="34" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="U34" s="32" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="V34" s="33" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="W34" s="33" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="X34" s="33" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Y34" s="33" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Z34" s="34" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A35" s="9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C35" s="21">
         <v>423452</v>
@@ -4252,10 +4257,10 @@
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A36" s="9" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C36" s="21">
         <v>81170</v>
@@ -4332,10 +4337,10 @@
     </row>
     <row r="37" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B37" s="22" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C37" s="23">
         <v>386566</v>
@@ -4411,9 +4416,11 @@
       </c>
     </row>
     <row r="38" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="26"/>
+      <c r="A38" s="26" t="s">
+        <v>47</v>
+      </c>
       <c r="B38" s="27" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C38" s="28">
         <v>3598208</v>
@@ -4490,10 +4497,10 @@
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A39" s="9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B39" s="43" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C39" s="44">
         <v>23740</v>
@@ -4570,10 +4577,10 @@
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A40" s="9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B40" s="18" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C40" s="21">
         <v>19406</v>
@@ -4650,10 +4657,10 @@
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A41" s="9" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B41" s="47" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C41" s="32">
         <v>11028</v>
@@ -4730,10 +4737,10 @@
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A42" s="9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B42" s="47" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C42" s="32">
         <v>2350</v>
@@ -4810,10 +4817,10 @@
     </row>
     <row r="43" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A43" s="9" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C43" s="21">
         <v>121885</v>
@@ -4890,10 +4897,10 @@
     </row>
     <row r="44" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="9" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B44" s="35" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C44" s="36">
         <v>5013</v>
@@ -4969,9 +4976,11 @@
       </c>
     </row>
     <row r="45" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="26"/>
+      <c r="A45" s="26" t="s">
+        <v>47</v>
+      </c>
       <c r="B45" s="27" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C45" s="28">
         <v>183422</v>
@@ -5048,10 +5057,10 @@
     </row>
     <row r="46" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A46" s="9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B46" s="39" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C46" s="40">
         <v>492678</v>
@@ -5128,10 +5137,10 @@
     </row>
     <row r="47" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A47" s="9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C47" s="21">
         <v>1410820</v>
@@ -5208,10 +5217,10 @@
     </row>
     <row r="48" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A48" s="9" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B48" s="47" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C48" s="32">
         <v>1302</v>
@@ -5288,10 +5297,10 @@
     </row>
     <row r="49" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A49" s="9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B49" s="18" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C49" s="21">
         <v>680375</v>
@@ -5368,10 +5377,10 @@
     </row>
     <row r="50" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A50" s="9" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B50" s="18" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C50" s="21">
         <v>32345</v>
@@ -5448,10 +5457,10 @@
     </row>
     <row r="51" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A51" s="9" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B51" s="14" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C51" s="15">
         <v>400725</v>
@@ -5528,10 +5537,10 @@
     </row>
     <row r="52" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A52" s="9" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B52" s="18" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C52" s="21">
         <v>233315</v>
@@ -5608,10 +5617,10 @@
     </row>
     <row r="53" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A53" s="9" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B53" s="18" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C53" s="21">
         <v>36199</v>
@@ -5688,10 +5697,10 @@
     </row>
     <row r="54" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A54" s="9" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B54" s="18" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C54" s="21">
         <v>62842</v>
@@ -5768,10 +5777,10 @@
     </row>
     <row r="55" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A55" s="9" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B55" s="18" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C55" s="21">
         <v>765811</v>
@@ -5848,10 +5857,10 @@
     </row>
     <row r="56" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A56" s="9" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B56" s="18" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C56" s="21">
         <v>290866</v>
@@ -5928,10 +5937,10 @@
     </row>
     <row r="57" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A57" s="9" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B57" s="18" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C57" s="21">
         <v>288737</v>
@@ -6008,10 +6017,10 @@
     </row>
     <row r="58" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A58" s="9" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B58" s="18" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C58" s="21">
         <v>153400</v>
@@ -6088,10 +6097,10 @@
     </row>
     <row r="59" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A59" s="9" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B59" s="18" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C59" s="21">
         <v>33011</v>
@@ -6168,10 +6177,10 @@
     </row>
     <row r="60" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="9" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B60" s="22" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C60" s="23">
         <v>353193</v>
@@ -6249,7 +6258,7 @@
     <row r="61" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="26"/>
       <c r="B61" s="27" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C61" s="28">
         <v>5235619</v>
@@ -6327,7 +6336,7 @@
     <row r="62" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="48"/>
       <c r="B62" s="49" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C62" s="50">
         <v>12302027</v>
@@ -6405,13 +6414,13 @@
     <row r="63" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="48"/>
       <c r="B63" s="49" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C63" s="50" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D63" s="51" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E63" s="51">
         <v>101523072.5</v>
@@ -6426,10 +6435,10 @@
         <v>31386935</v>
       </c>
       <c r="I63" s="50" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J63" s="51" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K63" s="51">
         <v>103541879.5</v>
@@ -6444,10 +6453,10 @@
         <v>36935509</v>
       </c>
       <c r="O63" s="50" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P63" s="51" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q63" s="51">
         <v>5773666.5</v>
@@ -6462,10 +6471,10 @@
         <v>6923867</v>
       </c>
       <c r="U63" s="50" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="V63" s="51" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="W63" s="51">
         <v>6028754.5</v>
@@ -6483,13 +6492,13 @@
     <row r="64" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A64" s="53"/>
       <c r="B64" s="54" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C64" s="55" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D64" s="56" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E64" s="56">
         <v>21266974.5</v>
@@ -6504,10 +6513,10 @@
         <v>4062856</v>
       </c>
       <c r="I64" s="55" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J64" s="56" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K64" s="56">
         <v>7396694.5</v>
@@ -6522,10 +6531,10 @@
         <v>860570</v>
       </c>
       <c r="O64" s="55" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P64" s="56" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q64" s="56">
         <v>1308551.5</v>
@@ -6540,10 +6549,10 @@
         <v>1345556</v>
       </c>
       <c r="U64" s="55" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="V64" s="56" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="W64" s="56">
         <v>3252284.5</v>
@@ -6561,13 +6570,13 @@
     <row r="65" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A65" s="53"/>
       <c r="B65" s="58" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C65" s="59" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D65" s="60" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E65" s="60">
         <v>41975634</v>
@@ -6582,10 +6591,10 @@
         <v>16204097</v>
       </c>
       <c r="I65" s="59" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J65" s="60" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K65" s="60">
         <v>22692205</v>
@@ -6600,10 +6609,10 @@
         <v>847719</v>
       </c>
       <c r="O65" s="59" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P65" s="60" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q65" s="60">
         <v>4683189</v>
@@ -6618,10 +6627,10 @@
         <v>4870311</v>
       </c>
       <c r="U65" s="59" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="V65" s="60" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="W65" s="60">
         <v>353734</v>
@@ -6639,7 +6648,7 @@
     <row r="66" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="53"/>
       <c r="B66" s="62" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C66" s="63">
         <v>12302027</v>
@@ -6717,7 +6726,7 @@
     <row r="67" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A67" s="53"/>
       <c r="B67" s="58" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C67" s="59">
         <v>3602688</v>
@@ -6795,7 +6804,7 @@
     <row r="68" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A68" s="53"/>
       <c r="B68" s="58" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C68" s="59">
         <v>7537424</v>
@@ -6873,7 +6882,7 @@
     <row r="69" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A69" s="53"/>
       <c r="B69" s="58" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C69" s="59">
         <v>2286293</v>
@@ -6951,7 +6960,7 @@
     <row r="70" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A70" s="53"/>
       <c r="B70" s="58" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C70" s="59">
         <v>1387384</v>
@@ -7029,7 +7038,7 @@
     <row r="71" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A71" s="53"/>
       <c r="B71" s="58" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C71" s="59">
         <v>5235619</v>
@@ -7107,7 +7116,7 @@
     <row r="72" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A72" s="53"/>
       <c r="B72" s="58" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C72" s="59">
         <v>3130990</v>
@@ -7185,7 +7194,7 @@
     <row r="73" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A73" s="53"/>
       <c r="B73" s="58" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C73" s="59">
         <v>2438716</v>
@@ -7263,7 +7272,7 @@
     <row r="74" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A74" s="53"/>
       <c r="B74" s="58" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C74" s="59">
         <v>164016</v>
@@ -7341,7 +7350,7 @@
     <row r="75" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="53"/>
       <c r="B75" s="58" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C75" s="66">
         <v>655066</v>
@@ -7419,13 +7428,13 @@
     <row r="76" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A76" s="53"/>
       <c r="B76" s="69" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C76" s="70" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D76" s="71" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E76" s="71">
         <v>11081283</v>
@@ -7440,10 +7449,10 @@
         <v>4238963</v>
       </c>
       <c r="I76" s="70" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J76" s="71" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K76" s="71">
         <v>7717800</v>
@@ -7458,10 +7467,10 @@
         <v>120500</v>
       </c>
       <c r="O76" s="70" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P76" s="71" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q76" s="71">
         <v>2135803</v>
@@ -7476,10 +7485,10 @@
         <v>1001114</v>
       </c>
       <c r="U76" s="70" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="V76" s="71" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="W76" s="71">
         <v>856822</v>
@@ -7497,13 +7506,13 @@
     <row r="77" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A77" s="53"/>
       <c r="B77" s="58" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C77" s="59" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D77" s="60" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E77" s="60">
         <v>5733272.5</v>
@@ -7518,10 +7527,10 @@
         <v>3557172</v>
       </c>
       <c r="I77" s="59" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J77" s="60" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K77" s="60">
         <v>5712624.5</v>
@@ -7536,10 +7545,10 @@
         <v>619819</v>
       </c>
       <c r="O77" s="59" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P77" s="60" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q77" s="60">
         <v>2837919.5</v>
@@ -7554,10 +7563,10 @@
         <v>1196387</v>
       </c>
       <c r="U77" s="59" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="V77" s="60" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="W77" s="60">
         <v>2885804.5</v>
@@ -7575,13 +7584,13 @@
     <row r="78" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A78" s="53"/>
       <c r="B78" s="58" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C78" s="59" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D78" s="60" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E78" s="60">
         <v>15242867</v>
@@ -7596,10 +7605,10 @@
         <v>3701180</v>
       </c>
       <c r="I78" s="59" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J78" s="60" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K78" s="60">
         <v>19289572</v>
@@ -7614,10 +7623,10 @@
         <v>5073404</v>
       </c>
       <c r="O78" s="59" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P78" s="60" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q78" s="60">
         <v>951387</v>
@@ -7632,10 +7641,10 @@
         <v>313355</v>
       </c>
       <c r="U78" s="59" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="V78" s="60" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="W78" s="60">
         <v>-917799</v>
@@ -7653,13 +7662,13 @@
     <row r="79" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="53"/>
       <c r="B79" s="62" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C79" s="63" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D79" s="64" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E79" s="64">
         <v>26238341</v>
@@ -7674,10 +7683,10 @@
         <v>9273311</v>
       </c>
       <c r="I79" s="63" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J79" s="64" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K79" s="64">
         <v>43639339</v>
@@ -7692,10 +7701,10 @@
         <v>33551656</v>
       </c>
       <c r="O79" s="63" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P79" s="64" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q79" s="64">
         <v>-1614953</v>
@@ -7710,10 +7719,10 @@
         <v>955427</v>
       </c>
       <c r="U79" s="63" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="V79" s="64" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="W79" s="64">
         <v>539334</v>
@@ -7731,7 +7740,7 @@
     <row r="80" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A80" s="53"/>
       <c r="B80" s="69" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C80" s="70">
         <v>1731294</v>
@@ -7809,13 +7818,13 @@
     <row r="81" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A81" s="53"/>
       <c r="B81" s="58" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C81" s="59" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D81" s="60" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E81" s="60">
         <v>12640081.5</v>
@@ -7830,10 +7839,10 @@
         <v>3931747</v>
       </c>
       <c r="I81" s="59" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J81" s="60" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K81" s="60">
         <v>30026674</v>
@@ -7848,10 +7857,10 @@
         <v>2250897</v>
       </c>
       <c r="O81" s="59" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P81" s="60" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q81" s="60">
         <v>1002939.5</v>
@@ -7866,10 +7875,10 @@
         <v>718565</v>
       </c>
       <c r="U81" s="59" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="V81" s="60" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="W81" s="60">
         <v>4433612</v>
@@ -7887,7 +7896,7 @@
     <row r="82" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A82" s="53"/>
       <c r="B82" s="58" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C82" s="59">
         <v>10570733</v>
@@ -7965,13 +7974,13 @@
     <row r="83" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="53"/>
       <c r="B83" s="62" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C83" s="63" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D83" s="64" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E83" s="64">
         <v>88882991</v>
@@ -7986,10 +7995,10 @@
         <v>27455188</v>
       </c>
       <c r="I83" s="63" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J83" s="64" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K83" s="64">
         <v>73515205.5</v>
@@ -8004,10 +8013,10 @@
         <v>34684612</v>
       </c>
       <c r="O83" s="63" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P83" s="64" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q83" s="64">
         <v>4770727</v>
@@ -8022,10 +8031,10 @@
         <v>6205302</v>
       </c>
       <c r="U83" s="63" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="V83" s="64" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="W83" s="64">
         <v>1595142.5</v>
@@ -8043,7 +8052,7 @@
     <row r="84" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A84" s="53"/>
       <c r="B84" s="69" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C84" s="70">
         <v>8101646</v>
@@ -8121,13 +8130,13 @@
     <row r="85" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A85" s="53"/>
       <c r="B85" s="73" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C85" s="59" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D85" s="60" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E85" s="60">
         <v>6941553</v>
@@ -8142,10 +8151,10 @@
         <v>1234546</v>
       </c>
       <c r="I85" s="59" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J85" s="60" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K85" s="60">
         <v>701928</v>
@@ -8160,10 +8169,10 @@
         <v>18802</v>
       </c>
       <c r="O85" s="59" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P85" s="60" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q85" s="60">
         <v>1806531</v>
@@ -8178,10 +8187,10 @@
         <v>990945</v>
       </c>
       <c r="U85" s="59" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="V85" s="60" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="W85" s="60">
         <v>-548616</v>
@@ -8199,7 +8208,7 @@
     <row r="86" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A86" s="53"/>
       <c r="B86" s="58" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C86" s="59">
         <v>3859054</v>
@@ -8277,13 +8286,13 @@
     <row r="87" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A87" s="53"/>
       <c r="B87" s="58" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C87" s="59" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D87" s="60" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E87" s="60">
         <v>29745821</v>
@@ -8298,10 +8307,10 @@
         <v>10139270</v>
       </c>
       <c r="I87" s="59" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J87" s="60" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K87" s="60">
         <v>11898816</v>
@@ -8316,10 +8325,10 @@
         <v>673569</v>
       </c>
       <c r="O87" s="59" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P87" s="60" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q87" s="60">
         <v>2974454</v>
@@ -8334,10 +8343,10 @@
         <v>2638312</v>
       </c>
       <c r="U87" s="59" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="V87" s="60" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="W87" s="60">
         <v>-160813</v>
@@ -8355,7 +8364,7 @@
     <row r="88" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A88" s="53"/>
       <c r="B88" s="58" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C88" s="59">
         <v>229149</v>
@@ -8433,13 +8442,13 @@
     <row r="89" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A89" s="53"/>
       <c r="B89" s="58" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C89" s="59" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D89" s="60" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E89" s="60">
         <v>38495980</v>
@@ -8454,10 +8463,10 @@
         <v>9166671</v>
       </c>
       <c r="I89" s="59" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J89" s="60" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K89" s="60">
         <v>22289895.5</v>
@@ -8472,10 +8481,10 @@
         <v>1676365</v>
       </c>
       <c r="O89" s="59" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P89" s="60" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q89" s="60">
         <v>-1581710</v>
@@ -8490,10 +8499,10 @@
         <v>2293670</v>
       </c>
       <c r="U89" s="59" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="V89" s="60" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="W89" s="60">
         <v>3355815.5</v>
@@ -8511,7 +8520,7 @@
     <row r="90" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A90" s="53"/>
       <c r="B90" s="62" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C90" s="63">
         <v>266</v>
@@ -8550,10 +8559,10 @@
         <v>34501182</v>
       </c>
       <c r="O90" s="63" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P90" s="64" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q90" s="64">
         <v>352290</v>
@@ -8568,10 +8577,10 @@
         <v>684264</v>
       </c>
       <c r="U90" s="63" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="V90" s="64" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="W90" s="64">
         <v>3391456</v>
@@ -8589,7 +8598,7 @@
     <row r="91" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A91" s="53"/>
       <c r="B91" s="69" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C91" s="70">
         <v>9574460</v>
@@ -8667,13 +8676,13 @@
     <row r="92" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A92" s="53"/>
       <c r="B92" s="58" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C92" s="59" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D92" s="60" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E92" s="60">
         <v>16946222</v>
@@ -8688,10 +8697,10 @@
         <v>1051543</v>
       </c>
       <c r="I92" s="59" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J92" s="60" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K92" s="60">
         <v>1744211</v>
@@ -8706,10 +8715,10 @@
         <v>67433</v>
       </c>
       <c r="O92" s="59" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P92" s="60" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q92" s="60">
         <v>1527641</v>
@@ -8724,10 +8733,10 @@
         <v>408654</v>
       </c>
       <c r="U92" s="59" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="V92" s="60" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="W92" s="60">
         <v>502520</v>
@@ -8745,7 +8754,7 @@
     <row r="93" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A93" s="53"/>
       <c r="B93" s="58" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C93" s="59">
         <v>54096</v>
@@ -8823,13 +8832,13 @@
     <row r="94" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A94" s="53"/>
       <c r="B94" s="58" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C94" s="59" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D94" s="60" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E94" s="60">
         <v>3684080</v>
@@ -8844,10 +8853,10 @@
         <v>735730</v>
       </c>
       <c r="I94" s="59" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J94" s="60" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K94" s="60">
         <v>2432252</v>
@@ -8862,10 +8871,10 @@
         <v>91445</v>
       </c>
       <c r="O94" s="59" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P94" s="60" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q94" s="60">
         <v>89538</v>
@@ -8880,10 +8889,10 @@
         <v>163443</v>
       </c>
       <c r="U94" s="59" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="V94" s="60" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="W94" s="60">
         <v>360824</v>
@@ -8901,7 +8910,7 @@
     <row r="95" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A95" s="53"/>
       <c r="B95" s="58" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C95" s="59">
         <v>6555693</v>
@@ -8982,10 +8991,10 @@
         <v>175</v>
       </c>
       <c r="C96" s="63" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D96" s="64" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E96" s="64">
         <v>12933611</v>
@@ -9000,10 +9009,10 @@
         <v>1799994</v>
       </c>
       <c r="I96" s="63" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J96" s="64" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K96" s="64">
         <v>2740378</v>
@@ -9018,10 +9027,10 @@
         <v>638090</v>
       </c>
       <c r="O96" s="63" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P96" s="64" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q96" s="64">
         <v>620438</v>
@@ -9036,10 +9045,10 @@
         <v>290450</v>
       </c>
       <c r="U96" s="63" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="V96" s="64" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="W96" s="64">
         <v>-96969</v>
@@ -9138,10 +9147,10 @@
         <v>177</v>
       </c>
       <c r="C98" s="63" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D98" s="64" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E98" s="64">
         <v>25398295.5</v>
@@ -9156,10 +9165,10 @@
         <v>4762841</v>
       </c>
       <c r="I98" s="63" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J98" s="64" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K98" s="64">
         <v>8808740</v>
@@ -9174,10 +9183,10 @@
         <v>226317</v>
       </c>
       <c r="O98" s="63" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P98" s="64" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q98" s="64">
         <v>4332777.5</v>
@@ -9192,10 +9201,10 @@
         <v>2075777</v>
       </c>
       <c r="U98" s="63" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="V98" s="64" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="W98" s="64">
         <v>352779</v>
@@ -9384,6 +9393,9 @@
       <c r="Z104" s="76"/>
     </row>
     <row r="105" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A105" s="1" t="s">
+        <v>183</v>
+      </c>
       <c r="C105" s="76"/>
       <c r="D105" s="76"/>
       <c r="E105" s="76"/>
@@ -9410,6 +9422,9 @@
       <c r="Z105" s="76"/>
     </row>
     <row r="106" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A106" s="1" t="s">
+        <v>183</v>
+      </c>
       <c r="B106" s="77"/>
       <c r="C106" s="76"/>
       <c r="D106" s="76"/>
@@ -9436,10 +9451,8 @@
       <c r="Y106" s="76"/>
       <c r="Z106" s="76"/>
     </row>
-    <row r="107" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="B107" s="78" t="s">
-        <v>183</v>
-      </c>
+    <row r="107" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B107" s="77"/>
       <c r="C107" s="76"/>
       <c r="D107" s="76"/>
       <c r="E107" s="76"/>
@@ -9466,7 +9479,9 @@
       <c r="Z107" s="76"/>
     </row>
     <row r="108" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="B108" s="2"/>
+      <c r="B108" s="81" t="s">
+        <v>187</v>
+      </c>
       <c r="C108" s="76"/>
       <c r="D108" s="76"/>
       <c r="E108" s="76"/>
@@ -9493,9 +9508,7 @@
       <c r="Z108" s="76"/>
     </row>
     <row r="109" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="B109" s="81" t="s">
-        <v>185</v>
-      </c>
+      <c r="B109" s="2"/>
       <c r="C109" s="76"/>
       <c r="D109" s="76"/>
       <c r="E109" s="76"/>
@@ -9522,8 +9535,8 @@
       <c r="Z109" s="76"/>
     </row>
     <row r="110" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="B110" s="81" t="s">
-        <v>186</v>
+      <c r="B110" s="2" t="s">
+        <v>184</v>
       </c>
       <c r="C110" s="76"/>
       <c r="D110" s="76"/>
@@ -9551,8 +9564,8 @@
       <c r="Z110" s="76"/>
     </row>
     <row r="111" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="B111" s="81" t="s">
-        <v>187</v>
+      <c r="B111" s="2" t="s">
+        <v>185</v>
       </c>
       <c r="C111" s="76"/>
       <c r="D111" s="76"/>
@@ -9580,8 +9593,8 @@
       <c r="Z111" s="76"/>
     </row>
     <row r="112" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="B112" s="2" t="s">
-        <v>184</v>
+      <c r="B112" s="81" t="s">
+        <v>188</v>
       </c>
       <c r="C112" s="76"/>
       <c r="D112" s="76"/>
@@ -9609,7 +9622,9 @@
       <c r="Z112" s="76"/>
     </row>
     <row r="113" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B113" s="79"/>
+      <c r="B113" s="81" t="s">
+        <v>186</v>
+      </c>
       <c r="C113" s="76"/>
       <c r="D113" s="76"/>
       <c r="E113" s="76"/>
@@ -9635,17 +9650,55 @@
       <c r="Y113" s="76"/>
       <c r="Z113" s="76"/>
     </row>
+    <row r="114" spans="2:26" x14ac:dyDescent="0.35">
+      <c r="B114" s="78"/>
+      <c r="C114" s="76"/>
+      <c r="D114" s="76"/>
+      <c r="E114" s="76"/>
+      <c r="F114" s="76"/>
+      <c r="G114" s="76"/>
+      <c r="H114" s="76"/>
+      <c r="I114" s="76"/>
+      <c r="J114" s="76"/>
+      <c r="K114" s="76"/>
+      <c r="L114" s="76"/>
+      <c r="M114" s="76"/>
+      <c r="N114" s="76"/>
+      <c r="O114" s="76"/>
+      <c r="P114" s="76"/>
+      <c r="Q114" s="76"/>
+      <c r="R114" s="76"/>
+      <c r="S114" s="76"/>
+      <c r="T114" s="76"/>
+      <c r="U114" s="76"/>
+      <c r="V114" s="76"/>
+      <c r="W114" s="76"/>
+      <c r="X114" s="76"/>
+      <c r="Y114" s="76"/>
+      <c r="Z114" s="76"/>
+    </row>
+    <row r="115" spans="2:26" x14ac:dyDescent="0.35">
+      <c r="B115" s="78"/>
+      <c r="C115" s="79"/>
+      <c r="D115" s="79"/>
+      <c r="E115" s="79"/>
+      <c r="F115" s="79"/>
+      <c r="G115" s="79"/>
+      <c r="H115" s="79"/>
+      <c r="I115" s="79"/>
+      <c r="J115" s="79"/>
+      <c r="K115" s="79"/>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B113" r:id="rId1" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{A738C1C9-21C1-40BC-8D33-F924E786A637}"/>
-    <hyperlink ref="B109" r:id="rId2" xr:uid="{C8125710-EBA2-48F9-BE9B-A5D37C5D7C73}"/>
-    <hyperlink ref="B110" r:id="rId3" xr:uid="{3499362F-B1D7-4CA5-A769-6B34E0A52D37}"/>
-    <hyperlink ref="B107" r:id="rId4" xr:uid="{1D51CB2E-5597-4FA1-A2F2-B3CEF45B414D}"/>
-    <hyperlink ref="B112" r:id="rId5" display="CLICK HERE to download all data for the Africa's Development Dynamics Statistical Annex in an Excel format, including historic data back to 2000." xr:uid="{DFA04667-E4E8-4F8E-950D-53CE932977A8}"/>
-    <hyperlink ref="B111" r:id="rId6" xr:uid="{5E3120AC-A205-490B-9287-FDF44350D97E}"/>
+    <hyperlink ref="B110" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{6D3C6D6A-2B9D-4C28-AA54-9A8C81A028EF}"/>
+    <hyperlink ref="B111" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{7F4B03FF-E357-4483-AF18-4F1B8052E988}"/>
+    <hyperlink ref="B113" r:id="rId3" xr:uid="{C0EB8988-C13C-4590-9113-C7F1D008B20F}"/>
+    <hyperlink ref="B108" r:id="rId4" xr:uid="{F8B41E32-EBAA-4C9B-805B-4670D56E9E40}"/>
+    <hyperlink ref="B112" r:id="rId5" xr:uid="{9AB6A623-E762-4EAF-A766-F6DC0D8697DF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="49" fitToWidth="0" orientation="portrait" r:id="rId7"/>
+  <pageSetup paperSize="9" scale="55" fitToHeight="0" orientation="portrait" r:id="rId6"/>
   <headerFooter>
     <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K0000FF Restricted Use - À usage restreint</oddFooter>
   </headerFooter>
